--- a/karat0/evidence.xlsx
+++ b/karat0/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\İndirilenler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameOfNfts\Volkan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FA39E4-C8C6-4858-BA85-E2BC27A43911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D52AF2B-874F-472F-8AF3-7D10F6A08584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25017" yWindow="-118" windowWidth="19086" windowHeight="11402" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -143,6 +125,48 @@
   </si>
   <si>
     <t>ChainSpace#3042</t>
+  </si>
+  <si>
+    <t>6925CD4EE9D46F15616B9DB52066AFE298DC18A6573046EE77C301872D873539</t>
+  </si>
+  <si>
+    <t>nftvvv</t>
+  </si>
+  <si>
+    <t>26BE1B1ED04808C2F00B80AD93BCAB48FB5F82802C338D058F189C5E9F2F8372</t>
+  </si>
+  <si>
+    <t>158E30CDEDB33FE56ECB78B84839831DE247DFFC12D1F493751A8C0AF651B9B4</t>
+  </si>
+  <si>
+    <t>nftvvv1</t>
+  </si>
+  <si>
+    <t>nftvvv2</t>
+  </si>
+  <si>
+    <t>juno1yaededl3dcmj7nzfgefd73xn8hnwf35dqgnr0053894cyg8qfaeql55xqv</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>C33BF023FA8BE1FAE53A8B596003302A1E3E81C858D1341EBC98DE9DD987B620</t>
+  </si>
+  <si>
+    <t>96D0A289F15C0096C9010914D93107FD49A981A8F5A1CAB5E6A10EB84D733EB0</t>
+  </si>
+  <si>
+    <t>ibc/D561DCBD5E5272B93D99A402B8C0A9B4040C12B9EF6D356AC695ECC1CC561512</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>4DF3415BA2F5BB00FA582A9A3811312A54FCC0412A66C9DC95F5031BF0C5FBDD</t>
+  </si>
+  <si>
+    <t>F41BAB829C58181AF95DDBCD0AE453D613631A25AAB3BA0503C8E980E16D57FF</t>
   </si>
 </sst>
 </file>
@@ -537,71 +561,71 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="43" customWidth="1"/>
-    <col min="7" max="8" width="17.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="52.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="7" max="8" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -618,13 +642,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -632,7 +656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -654,13 +678,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -668,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -690,13 +714,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -704,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -726,13 +750,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -740,7 +764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -762,13 +786,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -784,12 +808,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -808,13 +832,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -830,12 +854,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -854,13 +878,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -876,12 +900,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -900,13 +924,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -922,12 +946,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -946,13 +970,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -968,12 +992,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -992,13 +1016,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1014,12 +1038,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1036,14 +1060,16 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,12 +1077,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1073,13 +1099,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1095,12 +1121,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1119,13 +1145,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1141,12 +1167,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1165,22 +1191,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1199,22 +1225,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1233,22 +1259,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1267,22 +1293,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1297,17 +1323,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="77.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1318,15 +1347,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:3" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1341,16 +1381,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1364,18 +1406,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1390,16 +1432,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1413,18 +1457,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1439,16 +1483,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1462,18 +1508,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1488,17 +1534,19 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,18 +1560,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1540,13 +1588,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1554,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1576,13 +1624,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1590,7 +1638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
